--- a/generated_docs/WR_89708709_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/17/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89708709_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4728.01</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>952.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAI-3-P</t>
+          <t>SVW-2-TP-CUS-CC</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,AA Corr,Three,Poly</t>
+          <t>SVW,#2 AWG,Trip,Copper Str,Corr/Comm</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CNC-NTI-10</t>
+          <t>CON-2-AAI-3-P</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,31 +854,31 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CNC,splice Non-Tension Insul,336-1033</t>
+          <t>CON,#2 AWG,AA Corr,Three,Poly</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>121.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>CNC-NTI-10</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>CNC,splice Non-Tension Insul,336-1033</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,13 +901,13 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>714.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
@@ -935,13 +935,13 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>714.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
@@ -969,18 +969,18 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>714.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-40</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Compression Connector H-Tap Assembly 4/0</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>200.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>CNC-HTA-40</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Compression Connector H-Tap Assembly 4/0</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,21 +1033,55 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>714.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H25" s="16" t="n">
-        <v>4728.009999999999</v>
+      <c r="H26" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1059,9 +1093,9 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89708709_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>4728.01</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P6</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>952.8</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>SVW-2-TP-CUS-CC</t>
+          <t>CON-2-AAI-3-P</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +816,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>SVW,#2 AWG,Trip,Copper Str,Corr/Comm</t>
+          <t>CON,#2 AWG,AA Corr,Three,Poly</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,11 +825,11 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAI-3-P</t>
+          <t>CNC-NTI-10</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,31 +850,31 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,AA Corr,Three,Poly</t>
+          <t>CNC,splice Non-Tension Insul,336-1033</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>CNC-NTI-10</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>CNC,splice Non-Tension Insul,336-1033</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,13 +897,13 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>714.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
@@ -935,13 +931,13 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>714.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
@@ -969,18 +965,18 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>714.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>CNC-HTA-40</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Compression Connector H-Tap Assembly 4/0</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,22 +995,22 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>200.97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-40</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Compression Connector H-Tap Assembly 4/0</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,55 +1029,21 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>714.6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="13" t="inlineStr"/>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
-        <v>0</v>
+      <c r="H25" s="16" t="n">
+        <v>4728.009999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1093,9 +1055,9 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
